--- a/Thesis/Product.xlsx
+++ b/Thesis/Product.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Количество по полю Количество</t>
   </si>
@@ -121,78 +121,6 @@
   </si>
   <si>
     <t>Минск</t>
-  </si>
-  <si>
-    <t>БОТИНКИ С БРОГИРОВАНИЕМ НА МАССИВНОЙ ПОДОШВЕ ТЕМНО-КОРИЧНЕВЫЕ 1009-02</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>ДЕРБИ КЛАССИЧЕСКИЕ ТЕМНО-КОРИЧНЕВЫЕ 6805-878</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>БОТИНКИ ВЫСОКИЕ ЧЕРНЫЕ КОЖА 2123-01</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>БОТИНКИ НА ТОЛСТОЙ СПЛОШНОЙ ПОДОШВЕ ТЕМНО-КОРИЧНЕВЫЕ 9075</t>
-  </si>
-  <si>
-    <t>Могилев</t>
-  </si>
-  <si>
-    <t>Туфли женские 1111111</t>
-  </si>
-  <si>
-    <t>Гомель</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Годно</t>
-  </si>
-  <si>
-    <t>Туфли женские 2222222</t>
-  </si>
-  <si>
-    <t>Витебск</t>
-  </si>
-  <si>
-    <t>Брест</t>
-  </si>
-  <si>
-    <t>Туфли женские 4444444</t>
-  </si>
-  <si>
-    <t>Жлобин</t>
-  </si>
-  <si>
-    <t>Полоцк</t>
-  </si>
-  <si>
-    <t>Туфли женские 8888888</t>
-  </si>
-  <si>
-    <t>Название 4444455</t>
-  </si>
-  <si>
-    <t>Тапочки домашние 2251199</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Тапочки домашние 2261199</t>
-  </si>
-  <si>
-    <t>Тапочки домашние 2271199</t>
   </si>
 </sst>
 </file>
@@ -4463,7 +4391,7 @@
             <xdr:cNvPr id="6" name="Месяц">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8749eb97-e6a0-4447-882d-9c1d7b8a40af}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4467fcd8-d953-4638-a790-57f770be3921}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4483,7 +4411,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="{8749eb97-e6a0-4447-882d-9c1d7b8a40af}"/>
+            <xdr:cNvPr id="6" name="{4467fcd8-d953-4638-a790-57f770be3921}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4530,7 +4458,7 @@
             <xdr:cNvPr id="7" name="Год">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2a41f85e-ae24-4990-8b5b-17b7d3d12ce5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{dc94c3f3-2232-41b9-91ed-8019f78efe13}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4550,7 +4478,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="{2a41f85e-ae24-4990-8b5b-17b7d3d12ce5}"/>
+            <xdr:cNvPr id="7" name="{dc94c3f3-2232-41b9-91ed-8019f78efe13}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4597,7 +4525,7 @@
             <xdr:cNvPr id="8" name="Продукт">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{b2b1db75-e409-4cb1-a0a0-7cb2c5892b03}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864a1d8f-879c-4d53-b702-918ed25833c7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4617,7 +4545,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="{b2b1db75-e409-4cb1-a0a0-7cb2c5892b03}"/>
+            <xdr:cNvPr id="8" name="{864a1d8f-879c-4d53-b702-918ed25833c7}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4664,7 +4592,7 @@
             <xdr:cNvPr id="9" name="Регион">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ebafb385-8a44-4492-8c81-79282bddf6a2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ead53f97-3ebb-47fa-9047-9f1dfdcdd266}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4684,7 +4612,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="{ebafb385-8a44-4492-8c81-79282bddf6a2}"/>
+            <xdr:cNvPr id="9" name="{ead53f97-3ebb-47fa-9047-9f1dfdcdd266}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4757,18 +4685,6 @@
     <cacheField name="Продукт" numFmtId="0">
       <sharedItems containsBlank="1">
         <s v="БОТИНКИ ВЫСОКИЕ НА БАЙКЕ ЧЕРНЫЕ 6538-01"/>
-        <s v="БОТИНКИ С БРОГИРОВАНИЕМ НА МАССИВНОЙ ПОДОШВЕ ТЕМНО-КОРИЧНЕВЫЕ 1009-02"/>
-        <s v="ДЕРБИ КЛАССИЧЕСКИЕ ТЕМНО-КОРИЧНЕВЫЕ 6805-878"/>
-        <s v="БОТИНКИ ВЫСОКИЕ ЧЕРНЫЕ КОЖА 2123-01"/>
-        <s v="БОТИНКИ НА ТОЛСТОЙ СПЛОШНОЙ ПОДОШВЕ ТЕМНО-КОРИЧНЕВЫЕ 9075"/>
-        <s v="Туфли женские 1111111"/>
-        <s v="Туфли женские 2222222"/>
-        <s v="Туфли женские 4444444"/>
-        <s v="Туфли женские 8888888"/>
-        <s v="Название 4444455"/>
-        <s v="Тапочки домашние 2251199"/>
-        <s v="Тапочки домашние 2261199"/>
-        <s v="Тапочки домашние 2271199"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -4778,13 +4694,6 @@
     <cacheField name="Регион" numFmtId="0">
       <sharedItems containsBlank="1">
         <s v="Минск"/>
-        <s v="Могилев"/>
-        <s v="Гомель"/>
-        <s v="Годно"/>
-        <s v="Витебск"/>
-        <s v="Брест"/>
-        <s v="Жлобин"/>
-        <s v="Полоцк"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -4820,36 +4729,17 @@
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="15">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="10">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4894,36 +4784,17 @@
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item x="13"/>
+      <items count="3">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="10">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4987,36 +4858,17 @@
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item x="13"/>
+      <items count="3">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="10">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5091,36 +4943,17 @@
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item x="13"/>
+      <items count="3">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="10">
-        <item x="8"/>
+      <items count="3">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5195,36 +5028,17 @@
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="15">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="10">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5283,7 +5097,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяц" xr10:uid="{cfe9b12c-abb1-41ab-9dea-5bb8296f9926}" name="Slicer_Месяц" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяц" xr10:uid="{a46296e1-e9dc-4ec6-900c-4ee53789e68c}" name="Slicer_Месяц" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица1" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -5301,7 +5115,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Год" xr10:uid="{e14d3b60-b70d-42c8-a4db-c5ca5367128b}" name="Slicer_Год" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Год" xr10:uid="{2da273a2-d5b0-4ac2-adf0-ab01ede39def}" name="Slicer_Год" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица1" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -5319,7 +5133,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Продукт" xr10:uid="{2c37c0fa-111d-43a8-83b6-4a5457ce7d2d}" name="Slicer_Продукт" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Продукт" xr10:uid="{f4b7bb8d-82bd-48c9-80a9-a7f1d876a0b3}" name="Slicer_Продукт" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица1" tabId="7"/>
     <pivotTable name="Сводная таблица3" tabId="4"/>
@@ -5328,21 +5142,9 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="6">
-      <items count="14">
+      <items count="2">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
-        <i x="6" s="1"/>
-        <i x="7" s="1"/>
-        <i x="8" s="1"/>
-        <i x="9" s="1"/>
-        <i x="10" s="1"/>
-        <i x="11" s="1"/>
-        <i x="12" s="1"/>
-        <i x="13" s="1"/>
       </items>
     </tabular>
   </data>
@@ -5350,7 +5152,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{9d2592a0-6d76-4915-8690-5150f0af94f9}" name="Slicer_Регион" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{c57d6044-9dbd-4b35-a0e8-1efe8d544b46}" name="Slicer_Регион" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица1" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -5359,16 +5161,9 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="6">
-      <items count="9">
+      <items count="2">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
-        <i x="6" s="1"/>
-        <i x="7" s="1"/>
-        <i x="8" s="1"/>
       </items>
     </tabular>
   </data>
@@ -5846,7 +5641,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1" style="10"/>
-    <col min="2" max="2" width="83.0880911690848" customWidth="1" style="10"/>
+    <col min="2" max="2" width="45.0300641741071" customWidth="1" style="10"/>
     <col min="3" max="3" width="10.3913982936314" customWidth="1" style="10"/>
     <col min="4" max="4" width="10.0558329990932" customWidth="1" style="10"/>
     <col min="5" max="5" width="14.2442626953125" customWidth="1" style="10"/>
@@ -5901,21 +5696,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10">
-        <v>44752</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5000</v>
-      </c>
       <c r="F4" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5924,21 +5704,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10">
-        <v>44752</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5030</v>
-      </c>
       <c r="F5" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5947,21 +5712,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10">
-        <v>44752</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1040</v>
-      </c>
       <c r="F6" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5970,21 +5720,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10">
-        <v>44752</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="10">
-        <v>9050</v>
-      </c>
       <c r="F7" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5993,21 +5728,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10">
-        <v>44752</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="10">
-        <v>9060</v>
-      </c>
       <c r="F8" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6016,21 +5736,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10">
-        <v>44824</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="10">
-        <v>120</v>
-      </c>
       <c r="F9" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6039,21 +5744,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10">
-        <v>44665</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="10">
-        <v>100</v>
-      </c>
       <c r="F10" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6062,21 +5752,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10">
-        <v>44665</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10">
-        <v>200</v>
-      </c>
       <c r="F11" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6085,21 +5760,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10">
-        <v>44667</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="10">
-        <v>200</v>
-      </c>
       <c r="F12" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6108,21 +5768,6 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10">
-        <v>44667</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="10">
-        <v>200</v>
-      </c>
       <c r="F13" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6131,21 +5776,6 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10">
-        <v>44669</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="10">
-        <v>100</v>
-      </c>
       <c r="F14" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6154,21 +5784,6 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10">
-        <v>44671</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="10">
-        <v>100</v>
-      </c>
       <c r="F15" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6177,21 +5792,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10">
-        <v>44701</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="10">
-        <v>100</v>
-      </c>
       <c r="F16" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6200,21 +5800,6 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10">
-        <v>44723</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="10">
-        <v>300</v>
-      </c>
       <c r="F17" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6223,21 +5808,6 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10">
-        <v>44727</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="10">
-        <v>200</v>
-      </c>
       <c r="F18" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6246,21 +5816,6 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10">
-        <v>44730</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="10">
-        <v>200</v>
-      </c>
       <c r="F19" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6269,21 +5824,6 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10">
-        <v>44750</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="10">
-        <v>250</v>
-      </c>
       <c r="F20" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6292,21 +5832,6 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10">
-        <v>44760</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="10">
-        <v>500</v>
-      </c>
       <c r="F21" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6315,21 +5840,6 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10">
-        <v>44874</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="10">
-        <v>400</v>
-      </c>
       <c r="F22" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6338,21 +5848,6 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="10">
-        <v>44875</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="10">
-        <v>700</v>
-      </c>
       <c r="F23" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6361,21 +5856,6 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10">
-        <v>44910</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="10">
-        <v>900</v>
-      </c>
       <c r="F24" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6384,21 +5864,6 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10">
-        <v>44910</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="10">
-        <v>800</v>
-      </c>
       <c r="F25" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6407,21 +5872,6 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="10">
-        <v>44609</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="10">
-        <v>500</v>
-      </c>
       <c r="F26" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6430,21 +5880,6 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="10">
-        <v>44613</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="10">
-        <v>120</v>
-      </c>
       <c r="F27" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6453,21 +5888,6 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="10">
-        <v>44613</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="10">
-        <v>230</v>
-      </c>
       <c r="F28" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6476,21 +5896,6 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="10">
-        <v>44613</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="10">
-        <v>430</v>
-      </c>
       <c r="F29" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6499,21 +5904,6 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="10">
-        <v>44617</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="10">
-        <v>540</v>
-      </c>
       <c r="F30" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6522,21 +5912,6 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="10">
-        <v>44617</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="10">
-        <v>750</v>
-      </c>
       <c r="F31" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6545,21 +5920,6 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="10">
-        <v>44617</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="10">
-        <v>860</v>
-      </c>
       <c r="F32" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6568,21 +5928,6 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="10">
-        <v>44617</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="10">
-        <v>480</v>
-      </c>
       <c r="F33" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6591,21 +5936,6 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="10">
-        <v>44617</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="10">
-        <v>690</v>
-      </c>
       <c r="F34" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6614,21 +5944,6 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="10">
-        <v>44617</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="10">
-        <v>750</v>
-      </c>
       <c r="F35" s="10" t="str">
         <f ref="F35:F66" t="shared" si="2">IF(ISBLANK(A35),"",TEXT(A35,"ММММ"))</f>
       </c>
@@ -6637,21 +5952,6 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="10">
-        <v>44617</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="10">
-        <v>590</v>
-      </c>
       <c r="F36" s="10" t="str">
         <f t="shared" si="2"/>
       </c>
@@ -6660,21 +5960,6 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="10">
-        <v>44617</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="10">
-        <v>450</v>
-      </c>
       <c r="F37" s="10" t="str">
         <f t="shared" si="2"/>
       </c>

--- a/Thesis/Product.xlsx
+++ b/Thesis/Product.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Количество по полю Количество</t>
   </si>
@@ -121,6 +121,69 @@
   </si>
   <si>
     <t>Минск</t>
+  </si>
+  <si>
+    <t>Туфли женские 1111111</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Гомель</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Годно</t>
+  </si>
+  <si>
+    <t>Туфли женские 2222222</t>
+  </si>
+  <si>
+    <t>Витебск</t>
+  </si>
+  <si>
+    <t>Брест</t>
+  </si>
+  <si>
+    <t>Туфли женские 4444444</t>
+  </si>
+  <si>
+    <t>Могилев</t>
+  </si>
+  <si>
+    <t>Жлобин</t>
+  </si>
+  <si>
+    <t>Полоцк</t>
+  </si>
+  <si>
+    <t>Туфли женские 8888888</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Название 4444455</t>
+  </si>
+  <si>
+    <t>Тапочки домашние 2251199</t>
+  </si>
+  <si>
+    <t>Тапочки домашние 2261199</t>
+  </si>
+  <si>
+    <t>Тапочки домашние 2271199</t>
+  </si>
+  <si>
+    <t>ДЕРБИ КЛАССИЧЕСКИЕ ТЕМНО-КОРИЧНЕВЫЕ 6805-878</t>
+  </si>
+  <si>
+    <t>БОТИНКИ ВЫСОКИЕ ЧЕРНЫЕ КОЖА 2123-01</t>
   </si>
 </sst>
 </file>
@@ -4391,7 +4454,7 @@
             <xdr:cNvPr id="6" name="Месяц">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4467fcd8-d953-4638-a790-57f770be3921}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{e6a2fcc7-470e-4edb-9bf5-7597c19a5dbc}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4411,7 +4474,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="{4467fcd8-d953-4638-a790-57f770be3921}"/>
+            <xdr:cNvPr id="6" name="{e6a2fcc7-470e-4edb-9bf5-7597c19a5dbc}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4458,7 +4521,7 @@
             <xdr:cNvPr id="7" name="Год">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{dc94c3f3-2232-41b9-91ed-8019f78efe13}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ae472848-e6fb-4b71-b213-a7238b093a91}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4478,7 +4541,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="{dc94c3f3-2232-41b9-91ed-8019f78efe13}"/>
+            <xdr:cNvPr id="7" name="{ae472848-e6fb-4b71-b213-a7238b093a91}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4525,7 +4588,7 @@
             <xdr:cNvPr id="8" name="Продукт">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864a1d8f-879c-4d53-b702-918ed25833c7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24244512-d81e-403f-8897-fc008305305e}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4545,7 +4608,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="{864a1d8f-879c-4d53-b702-918ed25833c7}"/>
+            <xdr:cNvPr id="8" name="{24244512-d81e-403f-8897-fc008305305e}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4592,7 +4655,7 @@
             <xdr:cNvPr id="9" name="Регион">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ead53f97-3ebb-47fa-9047-9f1dfdcdd266}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8bcd8dc8-3ba7-4a0d-bfda-35cc8599bbc2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4612,7 +4675,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="{ead53f97-3ebb-47fa-9047-9f1dfdcdd266}"/>
+            <xdr:cNvPr id="9" name="{8bcd8dc8-3ba7-4a0d-bfda-35cc8599bbc2}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4685,6 +4748,16 @@
     <cacheField name="Продукт" numFmtId="0">
       <sharedItems containsBlank="1">
         <s v="БОТИНКИ ВЫСОКИЕ НА БАЙКЕ ЧЕРНЫЕ 6538-01"/>
+        <s v="Туфли женские 1111111"/>
+        <s v="Туфли женские 2222222"/>
+        <s v="Туфли женские 4444444"/>
+        <s v="Туфли женские 8888888"/>
+        <s v="Название 4444455"/>
+        <s v="Тапочки домашние 2251199"/>
+        <s v="Тапочки домашние 2261199"/>
+        <s v="Тапочки домашние 2271199"/>
+        <s v="ДЕРБИ КЛАССИЧЕСКИЕ ТЕМНО-КОРИЧНЕВЫЕ 6805-878"/>
+        <s v="БОТИНКИ ВЫСОКИЕ ЧЕРНЫЕ КОЖА 2123-01"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -4694,6 +4767,13 @@
     <cacheField name="Регион" numFmtId="0">
       <sharedItems containsBlank="1">
         <s v="Минск"/>
+        <s v="Гомель"/>
+        <s v="Годно"/>
+        <s v="Витебск"/>
+        <s v="Брест"/>
+        <s v="Могилев"/>
+        <s v="Жлобин"/>
+        <s v="Полоцк"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -4729,17 +4809,34 @@
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="3">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="3">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4784,17 +4881,34 @@
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="13">
+        <item x="11"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="3">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4858,17 +4972,34 @@
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="13">
+        <item x="11"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="3">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4943,17 +5074,34 @@
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="13">
+        <item x="11"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="3">
+      <items count="10">
+        <item x="8"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5028,17 +5176,34 @@
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="3">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="3">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5097,7 +5262,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяц" xr10:uid="{a46296e1-e9dc-4ec6-900c-4ee53789e68c}" name="Slicer_Месяц" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяц" xr10:uid="{703e26c5-b8ba-49f4-81b1-c0558273091b}" name="Slicer_Месяц" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица1" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -5115,7 +5280,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Год" xr10:uid="{2da273a2-d5b0-4ac2-adf0-ab01ede39def}" name="Slicer_Год" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Год" xr10:uid="{f273219a-08b7-4b48-9b15-b034ed381b14}" name="Slicer_Год" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица1" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -5133,7 +5298,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Продукт" xr10:uid="{f4b7bb8d-82bd-48c9-80a9-a7f1d876a0b3}" name="Slicer_Продукт" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Продукт" xr10:uid="{bfc9eca2-b802-4a65-9b26-28af93156caf}" name="Slicer_Продукт" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица1" tabId="7"/>
     <pivotTable name="Сводная таблица3" tabId="4"/>
@@ -5142,9 +5307,19 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="6">
-      <items count="2">
+      <items count="12">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
       </items>
     </tabular>
   </data>
@@ -5152,7 +5327,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{c57d6044-9dbd-4b35-a0e8-1efe8d544b46}" name="Slicer_Регион" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{3661ff83-e268-4d27-94c2-0da5a215d081}" name="Slicer_Регион" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица1" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -5161,9 +5336,16 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="6">
-      <items count="2">
+      <items count="9">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
       </items>
     </tabular>
   </data>
@@ -5641,7 +5823,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1" style="10"/>
-    <col min="2" max="2" width="45.0300641741071" customWidth="1" style="10"/>
+    <col min="2" max="2" width="51.6891959054129" customWidth="1" style="10"/>
     <col min="3" max="3" width="10.3913982936314" customWidth="1" style="10"/>
     <col min="4" max="4" width="10.0558329990932" customWidth="1" style="10"/>
     <col min="5" max="5" width="14.2442626953125" customWidth="1" style="10"/>
@@ -5696,6 +5878,21 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="10">
+        <v>44665</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="10">
+        <v>100</v>
+      </c>
       <c r="F4" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5704,6 +5901,21 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="10">
+        <v>44665</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
       <c r="F5" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5712,6 +5924,21 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="10">
+        <v>44667</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
       <c r="F6" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5720,6 +5947,21 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="10">
+        <v>44667</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
       <c r="F7" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5728,6 +5970,21 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="10">
+        <v>44669</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="10">
+        <v>100</v>
+      </c>
       <c r="F8" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5736,6 +5993,21 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" s="10">
+        <v>44671</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="10">
+        <v>100</v>
+      </c>
       <c r="F9" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5744,6 +6016,21 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="10">
+        <v>44701</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10">
+        <v>100</v>
+      </c>
       <c r="F10" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5752,6 +6039,21 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" s="10">
+        <v>44723</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="10">
+        <v>300</v>
+      </c>
       <c r="F11" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5760,6 +6062,21 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="10">
+        <v>44727</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="10">
+        <v>200</v>
+      </c>
       <c r="F12" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5768,6 +6085,21 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="10">
+        <v>44730</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10">
+        <v>200</v>
+      </c>
       <c r="F13" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5776,6 +6108,21 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="10">
+        <v>44750</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="10">
+        <v>250</v>
+      </c>
       <c r="F14" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5784,6 +6131,21 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="10">
+        <v>44760</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10">
+        <v>500</v>
+      </c>
       <c r="F15" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5792,6 +6154,21 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" s="10">
+        <v>44874</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="10">
+        <v>400</v>
+      </c>
       <c r="F16" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5800,6 +6177,21 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" s="10">
+        <v>44875</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="10">
+        <v>700</v>
+      </c>
       <c r="F17" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5808,6 +6200,21 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="10">
+        <v>44910</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10">
+        <v>900</v>
+      </c>
       <c r="F18" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5816,6 +6223,21 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" s="10">
+        <v>44910</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="10">
+        <v>800</v>
+      </c>
       <c r="F19" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5824,6 +6246,21 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="10">
+        <v>44613</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="10">
+        <v>120</v>
+      </c>
       <c r="F20" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5832,6 +6269,21 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" s="10">
+        <v>44613</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="10">
+        <v>230</v>
+      </c>
       <c r="F21" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5840,6 +6292,21 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" s="10">
+        <v>44613</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="10">
+        <v>430</v>
+      </c>
       <c r="F22" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5848,6 +6315,21 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" s="10">
+        <v>44617</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="10">
+        <v>540</v>
+      </c>
       <c r="F23" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5856,6 +6338,21 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" s="10">
+        <v>44617</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="10">
+        <v>750</v>
+      </c>
       <c r="F24" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5864,6 +6361,21 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" s="10">
+        <v>44617</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="10">
+        <v>860</v>
+      </c>
       <c r="F25" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5872,6 +6384,21 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" s="10">
+        <v>44617</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="10">
+        <v>480</v>
+      </c>
       <c r="F26" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5880,6 +6407,21 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" s="10">
+        <v>44617</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="10">
+        <v>690</v>
+      </c>
       <c r="F27" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5888,6 +6430,21 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" s="10">
+        <v>44617</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="10">
+        <v>750</v>
+      </c>
       <c r="F28" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5896,6 +6453,21 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" s="10">
+        <v>44617</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="10">
+        <v>590</v>
+      </c>
       <c r="F29" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5904,6 +6476,21 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" s="10">
+        <v>44617</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="10">
+        <v>450</v>
+      </c>
       <c r="F30" s="10" t="str">
         <f t="shared" si="0"/>
       </c>

--- a/Thesis/Product.xlsx
+++ b/Thesis/Product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\source\repos\Thesis\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\source\repos\Otiko\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA07D3-B145-45F2-ACEF-B6EEE5072734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEDEBB-0BC1-4F61-9628-EB08E6F8ED36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="450" windowWidth="23265" windowHeight="15300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="450" windowWidth="23265" windowHeight="15300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId8"/>
+    <pivotCache cacheId="12" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,9 +58,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
-    <t>Количество по полю Количество</t>
+    <t>Сумма по полю Количество</t>
   </si>
   <si>
     <t>Названия столбцов</t>
@@ -93,6 +93,9 @@
     <t>Продажи в разрезе годов</t>
   </si>
   <si>
+    <t>Количество по полю Количество</t>
+  </si>
+  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -123,10 +126,13 @@
     <t>Минск</t>
   </si>
   <si>
-    <t>Туфли женские 1111111</t>
+    <t>ДЕРБИ КЛАССИЧЕСКИЕ ТЕМНО-КОРИЧНЕВЫЕ 6805-878</t>
   </si>
   <si>
     <t>37</t>
+  </si>
+  <si>
+    <t>Туфли женские 1111111</t>
   </si>
   <si>
     <t>Гомель</t>
@@ -180,10 +186,13 @@
     <t>Тапочки домашние 2271199</t>
   </si>
   <si>
-    <t>ДЕРБИ КЛАССИЧЕСКИЕ ТЕМНО-КОРИЧНЕВЫЕ 6805-878</t>
+    <t>БОТИНКИ ВЫСОКИЕ ЧЕРНЫЕ КОЖА 2123-01</t>
   </si>
   <si>
-    <t>БОТИНКИ ВЫСОКИЕ ЧЕРНЫЕ КОЖА 2123-01</t>
+    <t>БОТИНКИ С БРОГИРОВАНИЕМ НА МАССИВНОЙ ПОДОШВЕ ТЕМНО-КОРИЧНЕВЫЕ 1009-02</t>
+  </si>
+  <si>
+    <t>Абобавиль</t>
   </si>
 </sst>
 </file>
@@ -481,6 +490,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -534,7 +599,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-32BB-48FC-B370-67DFB09A2F7B}"/>
+              <c16:uniqueId val="{00000001-D85A-478D-A6E3-72DA15118DEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -913,6 +978,148 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -1400,6 +1607,148 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1854,6 +2203,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1904,7 +2309,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0059-49D6-9A43-A32B60F3C175}"/>
+              <c16:uniqueId val="{00000001-02AF-4B41-B97A-A5331C9D55E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4454,7 +4859,7 @@
             <xdr:cNvPr id="6" name="Месяц">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{e6a2fcc7-470e-4edb-9bf5-7597c19a5dbc}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98304aac-ab68-4763-a194-62bc376d0ecc}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4474,7 +4879,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="{e6a2fcc7-470e-4edb-9bf5-7597c19a5dbc}"/>
+            <xdr:cNvPr id="6" name="{98304aac-ab68-4763-a194-62bc376d0ecc}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4521,7 +4926,7 @@
             <xdr:cNvPr id="7" name="Год">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ae472848-e6fb-4b71-b213-a7238b093a91}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ba69e79d-43f4-4f30-bbed-6b0c792f133d}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4541,7 +4946,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="{ae472848-e6fb-4b71-b213-a7238b093a91}"/>
+            <xdr:cNvPr id="7" name="{ba69e79d-43f4-4f30-bbed-6b0c792f133d}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4588,7 +4993,7 @@
             <xdr:cNvPr id="8" name="Продукт">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24244512-d81e-403f-8897-fc008305305e}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3dcfc234-6d85-42e0-9c82-9a4f75151b60}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4608,7 +5013,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="{24244512-d81e-403f-8897-fc008305305e}"/>
+            <xdr:cNvPr id="8" name="{3dcfc234-6d85-42e0-9c82-9a4f75151b60}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4655,7 +5060,7 @@
             <xdr:cNvPr id="9" name="Регион">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8bcd8dc8-3ba7-4a0d-bfda-35cc8599bbc2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{c3232183-9908-4748-ba5d-66c243171855}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4675,7 +5080,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="{8bcd8dc8-3ba7-4a0d-bfda-35cc8599bbc2}"/>
+            <xdr:cNvPr id="9" name="{c3232183-9908-4748-ba5d-66c243171855}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4737,7 +5142,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mi" refreshedDate="44620.638948842592" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="198" xr:uid="{2B1AED20-F2D7-4CC1-83AD-145EBC0E83C4}" refreshOnLoad="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mi" refreshedDate="44636.841607060182" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="198" xr:uid="{2B1AED20-F2D7-4CC1-83AD-145EBC0E83C4}" refreshOnLoad="1">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -4748,6 +5153,7 @@
     <cacheField name="Продукт" numFmtId="0">
       <sharedItems containsBlank="1">
         <s v="БОТИНКИ ВЫСОКИЕ НА БАЙКЕ ЧЕРНЫЕ 6538-01"/>
+        <s v="ДЕРБИ КЛАССИЧЕСКИЕ ТЕМНО-КОРИЧНЕВЫЕ 6805-878"/>
         <s v="Туфли женские 1111111"/>
         <s v="Туфли женские 2222222"/>
         <s v="Туфли женские 4444444"/>
@@ -4756,8 +5162,8 @@
         <s v="Тапочки домашние 2251199"/>
         <s v="Тапочки домашние 2261199"/>
         <s v="Тапочки домашние 2271199"/>
-        <s v="ДЕРБИ КЛАССИЧЕСКИЕ ТЕМНО-КОРИЧНЕВЫЕ 6805-878"/>
         <s v="БОТИНКИ ВЫСОКИЕ ЧЕРНЫЕ КОЖА 2123-01"/>
+        <s v="БОТИНКИ С БРОГИРОВАНИЕМ НА МАССИВНОЙ ПОДОШВЕ ТЕМНО-КОРИЧНЕВЫЕ 1009-02"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -4774,6 +5180,7 @@
         <s v="Могилев"/>
         <s v="Жлобин"/>
         <s v="Полоцк"/>
+        <s v="Абобавиль"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -4793,7 +5200,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="6"/>
+      <x14:pivotCacheDefinition pivotCacheId="12"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -4804,12 +5211,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C85610B-CBD6-4171-A00A-1A963D09CA1E}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C85610B-CBD6-4171-A00A-1A963D09CA1E}" name="Сводная таблица1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B22:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="13">
+      <items count="14">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4822,12 +5229,13 @@
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="10">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4837,6 +5245,7 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4876,13 +5285,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1233B9C7-C0E7-4D16-BC9A-69BE79B7238A}" name="Сводная таблица2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1233B9C7-C0E7-4D16-BC9A-69BE79B7238A}" name="Сводная таблица2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A2:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="11"/>
+      <items count="14">
+        <item x="12"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4894,12 +5303,13 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="10">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4909,6 +5319,7 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4941,10 +5352,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Количество по полю Количество" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Количество" fld="4" baseField="1" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="1" format="1" series="1">
+    <chartFormat chart="1" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4967,13 +5378,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BAFA771-96EA-4ACD-85A3-DEBFE8BC67FE}" name="Сводная таблица3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BAFA771-96EA-4ACD-85A3-DEBFE8BC67FE}" name="Сводная таблица3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="11"/>
+      <items count="14">
+        <item x="12"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4985,12 +5396,13 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="10">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5000,6 +5412,7 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5040,10 +5453,19 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Количество по полю Количество" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Количество" fld="4" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="2" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5069,13 +5491,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EF2E095-20B6-4641-901F-8778FD11250B}" name="Сводная таблица4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EF2E095-20B6-4641-901F-8778FD11250B}" name="Сводная таблица4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="11"/>
+      <items count="14">
+        <item x="12"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5087,13 +5509,14 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="10">
-        <item x="8"/>
+      <items count="11">
+        <item x="9"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5102,6 +5525,7 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5142,10 +5566,19 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Количество по полю Количество" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Количество" fld="4" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="2" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5171,12 +5604,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B9B598F-5D81-40DF-9897-E4523DEE5FD6}" name="Сводная таблица5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B9B598F-5D81-40DF-9897-E4523DEE5FD6}" name="Сводная таблица5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="13">
+      <items count="14">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5189,12 +5622,13 @@
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="10">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5204,6 +5638,7 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5236,10 +5671,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Количество по полю Количество" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Количество" fld="4" baseField="6" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="1" format="1" series="1">
+    <chartFormat chart="1" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5262,7 +5697,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяц" xr10:uid="{703e26c5-b8ba-49f4-81b1-c0558273091b}" name="Slicer_Месяц" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяц" xr10:uid="{7dc17afc-f4a2-484a-acc6-0570f641b47b}" name="Slicer_Месяц" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица1" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -5270,7 +5705,7 @@
     <pivotTable name="Сводная таблица5" tabId="6"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="6">
+    <tabular pivotCacheId="12">
       <items count="1">
         <i x="0" s="1"/>
       </items>
@@ -5280,7 +5715,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Год" xr10:uid="{f273219a-08b7-4b48-9b15-b034ed381b14}" name="Slicer_Год" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Год" xr10:uid="{50f4817c-2677-47ab-9ca6-70ad28b43282}" name="Slicer_Год" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица1" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -5288,7 +5723,7 @@
     <pivotTable name="Сводная таблица4" tabId="5"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="6">
+    <tabular pivotCacheId="12">
       <items count="1">
         <i x="0" s="1"/>
       </items>
@@ -5298,7 +5733,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Продукт" xr10:uid="{bfc9eca2-b802-4a65-9b26-28af93156caf}" name="Slicer_Продукт" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Продукт" xr10:uid="{f5b1d646-94da-42d3-b4fb-7d79e411cfe8}" name="Slicer_Продукт" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица1" tabId="7"/>
     <pivotTable name="Сводная таблица3" tabId="4"/>
@@ -5306,8 +5741,8 @@
     <pivotTable name="Сводная таблица5" tabId="6"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="6">
-      <items count="12">
+    <tabular pivotCacheId="12">
+      <items count="13">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
@@ -5320,6 +5755,7 @@
         <i x="9" s="1"/>
         <i x="10" s="1"/>
         <i x="11" s="1"/>
+        <i x="12" s="1"/>
       </items>
     </tabular>
   </data>
@@ -5327,7 +5763,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{3661ff83-e268-4d27-94c2-0da5a215d081}" name="Slicer_Регион" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{b1673579-dd9d-4fd1-aaea-a3477cf97f02}" name="Slicer_Регион" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица1" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -5335,8 +5771,8 @@
     <pivotTable name="Сводная таблица5" tabId="6"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="6">
-      <items count="9">
+    <tabular pivotCacheId="12">
+      <items count="10">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
@@ -5346,6 +5782,7 @@
         <i x="6" s="1"/>
         <i x="7" s="1"/>
         <i x="8" s="1"/>
+        <i x="9" s="1"/>
       </items>
     </tabular>
   </data>
@@ -5650,7 +6087,7 @@
   <dimension ref="A2:T42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5735,7 +6172,7 @@
     </row>
     <row r="22" ht="15">
       <c r="B22" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="15">
@@ -5822,10 +6259,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="10"/>
-    <col min="2" max="2" width="51.6891959054129" customWidth="1" style="10"/>
+    <col min="1" max="1" width="12.8873988560268" customWidth="1" style="10"/>
+    <col min="2" max="2" width="83.0880911690848" customWidth="1" style="10"/>
     <col min="3" max="3" width="10.3913982936314" customWidth="1" style="10"/>
-    <col min="4" max="4" width="10.0558329990932" customWidth="1" style="10"/>
+    <col min="4" max="4" width="11.4469223022461" customWidth="1" style="10"/>
     <col min="5" max="5" width="14.2442626953125" customWidth="1" style="10"/>
     <col min="6" max="6" width="9.68650654384068" customWidth="1" style="10"/>
     <col min="7" max="7" width="9.140625" customWidth="1" style="10"/>
@@ -5833,25 +6270,25 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -5859,13 +6296,13 @@
         <v>44752</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="10">
         <v>2000</v>
@@ -5879,19 +6316,19 @@
     </row>
     <row r="4">
       <c r="A4" s="10">
-        <v>44665</v>
+        <v>44752</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="10">
-        <v>100</v>
+        <v>5030</v>
       </c>
       <c r="F4" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5905,16 +6342,16 @@
         <v>44665</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F5" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5925,16 +6362,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10">
-        <v>44667</v>
+        <v>44665</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -5951,13 +6388,13 @@
         <v>44667</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -5971,19 +6408,19 @@
     </row>
     <row r="8">
       <c r="A8" s="10">
-        <v>44669</v>
+        <v>44667</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5994,16 +6431,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10">
-        <v>44671</v>
+        <v>44669</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10">
         <v>100</v>
@@ -6017,13 +6454,13 @@
     </row>
     <row r="10">
       <c r="A10" s="10">
-        <v>44701</v>
+        <v>44671</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>31</v>
@@ -6040,19 +6477,19 @@
     </row>
     <row r="11">
       <c r="A11" s="10">
-        <v>44723</v>
+        <v>44701</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="10">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6063,19 +6500,19 @@
     </row>
     <row r="12">
       <c r="A12" s="10">
-        <v>44727</v>
+        <v>44723</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="10">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F12" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6086,16 +6523,16 @@
     </row>
     <row r="13">
       <c r="A13" s="10">
-        <v>44730</v>
+        <v>44727</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E13" s="10">
         <v>200</v>
@@ -6109,19 +6546,19 @@
     </row>
     <row r="14">
       <c r="A14" s="10">
-        <v>44750</v>
+        <v>44730</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="10">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6132,19 +6569,19 @@
     </row>
     <row r="15">
       <c r="A15" s="10">
-        <v>44760</v>
+        <v>44750</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="10">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F15" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6155,19 +6592,19 @@
     </row>
     <row r="16">
       <c r="A16" s="10">
-        <v>44874</v>
+        <v>44760</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="10">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6178,19 +6615,19 @@
     </row>
     <row r="17">
       <c r="A17" s="10">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="10">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F17" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6201,19 +6638,19 @@
     </row>
     <row r="18">
       <c r="A18" s="10">
-        <v>44910</v>
+        <v>44875</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="10">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F18" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6227,16 +6664,16 @@
         <v>44910</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="10">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F19" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6247,19 +6684,19 @@
     </row>
     <row r="20">
       <c r="A20" s="10">
-        <v>44613</v>
+        <v>44910</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E20" s="10">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="F20" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6273,16 +6710,16 @@
         <v>44613</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="10">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="F21" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6296,16 +6733,16 @@
         <v>44613</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="10">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="F22" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6316,19 +6753,19 @@
     </row>
     <row r="23">
       <c r="A23" s="10">
-        <v>44617</v>
+        <v>44613</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="10">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="F23" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6342,16 +6779,16 @@
         <v>44617</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="10">
-        <v>750</v>
+        <v>540</v>
       </c>
       <c r="F24" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6365,16 +6802,16 @@
         <v>44617</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="10">
-        <v>860</v>
+        <v>750</v>
       </c>
       <c r="F25" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6388,16 +6825,16 @@
         <v>44617</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="10">
-        <v>480</v>
+        <v>860</v>
       </c>
       <c r="F26" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6411,16 +6848,16 @@
         <v>44617</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="10">
-        <v>690</v>
+        <v>480</v>
       </c>
       <c r="F27" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6434,16 +6871,16 @@
         <v>44617</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" s="10">
-        <v>750</v>
+        <v>690</v>
       </c>
       <c r="F28" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6457,16 +6894,16 @@
         <v>44617</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29" s="10">
-        <v>590</v>
+        <v>750</v>
       </c>
       <c r="F29" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6480,16 +6917,16 @@
         <v>44617</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" s="10">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="F30" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6499,6 +6936,21 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" s="10">
+        <v>44617</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="10">
+        <v>450</v>
+      </c>
       <c r="F31" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6507,6 +6959,21 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" s="10">
+        <v>44745.6465572106</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
       <c r="F32" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6515,6 +6982,21 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" s="10">
+        <v>44734.6489505787</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="10">
+        <v>10000</v>
+      </c>
       <c r="F33" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6523,6 +7005,21 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" s="10">
+        <v>44645.6497759607</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="10">
+        <v>10</v>
+      </c>
       <c r="F34" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -6531,6 +7028,21 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" s="10">
+        <v>44671</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
       <c r="F35" s="10" t="str">
         <f ref="F35:F66" t="shared" si="2">IF(ISBLANK(A35),"",TEXT(A35,"ММММ"))</f>
       </c>
@@ -6539,6 +7051,21 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" s="10">
+        <v>44673</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="10">
+        <v>3</v>
+      </c>
       <c r="F36" s="10" t="str">
         <f t="shared" si="2"/>
       </c>
@@ -6547,6 +7074,21 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" s="10">
+        <v>44700</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
       <c r="F37" s="10" t="str">
         <f t="shared" si="2"/>
       </c>
@@ -6555,6 +7097,21 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" s="10">
+        <v>44670</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="10">
+        <v>7</v>
+      </c>
       <c r="F38" s="10" t="str">
         <f t="shared" si="2"/>
       </c>
@@ -6563,6 +7120,21 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" s="10">
+        <v>44673</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
       <c r="F39" s="10" t="str">
         <f t="shared" si="2"/>
       </c>
@@ -7871,14 +8443,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D8BA6F-FC28-4AEC-BAC8-EDC2BC1F0FAA}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -7917,7 +8489,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="27" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" bestFit="1" width="11.85546875" customWidth="1"/>
   </cols>
@@ -7968,7 +8540,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="27" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" bestFit="1" width="11.85546875" customWidth="1"/>
   </cols>
@@ -8016,14 +8588,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB60D0F-84B3-4890-988F-78FE0BE1E77B}">
   <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3">
